--- a/5_CodingDrillDown/ReceptiveField_Calculation.xlsx
+++ b/5_CodingDrillDown/ReceptiveField_Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB4214-C067-4CF5-BDBF-5A0316EC2533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F3BB9E-8C3D-41BD-A3C8-EEB6BBDD4077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F516E28B-B8C5-4936-9EE5-DE6C6B8DAAF1}">
   <dimension ref="B15:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>3</v>
       </c>
       <c r="N16">
@@ -952,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>5</v>
       </c>
       <c r="N17">
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="M18">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>6</v>
       </c>
       <c r="N18">
@@ -1067,8 +1067,8 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>12</v>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>6</v>
       </c>
       <c r="N19">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
@@ -1122,11 +1122,11 @@
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>28</v>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>10</v>
       </c>
       <c r="N20">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>60</v>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>14</v>
       </c>
       <c r="N21">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>124</v>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>18</v>
       </c>
       <c r="N22">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
@@ -1296,11 +1296,11 @@
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>248</v>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>18</v>
       </c>
       <c r="N23">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
@@ -1348,11 +1348,11 @@
       </c>
       <c r="L24">
         <f t="shared" ref="L24" si="3">M23</f>
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>496</v>
+        <f>CNN[[#This Row],[rin]]+(CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>18</v>
       </c>
       <c r="N24">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
@@ -1701,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86E5FD-51FE-4316-85E7-EBDFEBDE0E46}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
